--- a/Question/附件.xlsx
+++ b/Question/附件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200" activeTab="1"/>
+    <workbookView windowWidth="25590" windowHeight="11200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="140">
   <si>
     <t>文物编号</t>
   </si>
@@ -1413,6 +1413,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>玻璃类型</t>
+  </si>
+  <si>
+    <t>玻璃亚类</t>
   </si>
   <si>
     <t>A1</t>
@@ -1450,7 +1456,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,13 +1502,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1522,13 +1521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
@@ -1540,13 +1532,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1701,22 +1686,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -2050,19 +2021,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2071,131 +2054,119 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2223,13 +2194,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2244,7 +2212,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,22 +2221,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2849,1008 +2811,1008 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.6363636363636" style="20" customWidth="1"/>
-    <col min="2" max="5" width="10.6363636363636" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="21"/>
+    <col min="1" max="1" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="2" max="5" width="10.6363636363636" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="18" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24" t="s">
+      <c r="D59" s="21"/>
+      <c r="E59" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3870,74 +3832,74 @@
   <sheetPr/>
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q$1:Q$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="12.6363636363636" style="13" customWidth="1"/>
-    <col min="3" max="16" width="10.6363636363636" style="14" customWidth="1"/>
-    <col min="17" max="16384" width="8.72727272727273" style="14"/>
+    <col min="1" max="2" width="12.6363636363636" style="12" customWidth="1"/>
+    <col min="3" max="16" width="10.6363636363636" style="13" customWidth="1"/>
+    <col min="17" max="16384" width="8.72727272727273" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="29" spans="1:16">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="11" customFormat="1" ht="29" spans="1:16">
+      <c r="A1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="8">
@@ -3974,10 +3936,10 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8">
@@ -4015,11 +3977,11 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" s="12" customFormat="1" spans="1:16">
-      <c r="A4" s="17" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:16">
+      <c r="A4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="8">
@@ -4052,10 +4014,10 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="8">
@@ -4096,10 +4058,10 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="8">
@@ -4136,10 +4098,10 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="8">
@@ -4178,10 +4140,10 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="8">
@@ -4219,11 +4181,11 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" s="12" customFormat="1" spans="1:16">
-      <c r="A9" s="17" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:16">
+      <c r="A9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="8">
@@ -4263,11 +4225,11 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" s="12" customFormat="1" spans="1:16">
-      <c r="A10" s="17" t="s">
+    <row r="10" s="11" customFormat="1" spans="1:16">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="8">
@@ -4297,11 +4259,11 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" s="12" customFormat="1" spans="1:16">
-      <c r="A11" s="17" t="s">
+    <row r="11" s="11" customFormat="1" spans="1:16">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="8">
@@ -4338,10 +4300,10 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="8">
@@ -4378,10 +4340,10 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="8">
@@ -4414,10 +4376,10 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="8">
@@ -4447,11 +4409,11 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" s="12" customFormat="1" spans="1:16">
-      <c r="A15" s="17" t="s">
+    <row r="15" s="11" customFormat="1" spans="1:16">
+      <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="8">
@@ -4490,10 +4452,10 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="8">
@@ -4525,11 +4487,11 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:16">
-      <c r="A17" s="17" t="s">
+    <row r="17" s="11" customFormat="1" spans="1:16">
+      <c r="A17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="8">
@@ -4561,13 +4523,13 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="18"/>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="1:16">
-      <c r="A18" s="17" t="s">
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" s="11" customFormat="1" spans="1:16">
+      <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="8">
@@ -4603,13 +4565,13 @@
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="18"/>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="1:16">
-      <c r="A19" s="17" t="s">
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" s="11" customFormat="1" spans="1:16">
+      <c r="A19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="8">
@@ -4645,13 +4607,13 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="18"/>
-    </row>
-    <row r="20" s="12" customFormat="1" spans="1:16">
-      <c r="A20" s="17" t="s">
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" s="11" customFormat="1" spans="1:16">
+      <c r="A20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="8">
@@ -4689,13 +4651,13 @@
         <v>0.04</v>
       </c>
       <c r="O20" s="8"/>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" s="12" customFormat="1" spans="1:16">
-      <c r="A21" s="17" t="s">
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="1:16">
+      <c r="A21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="8">
@@ -4731,13 +4693,13 @@
       <c r="O21" s="8">
         <v>0</v>
       </c>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" s="12" customFormat="1" spans="1:16">
-      <c r="A22" s="17" t="s">
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" s="11" customFormat="1" spans="1:16">
+      <c r="A22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="8">
@@ -4767,13 +4729,13 @@
       <c r="O22" s="8">
         <v>2.36</v>
       </c>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" s="12" customFormat="1" spans="1:16">
-      <c r="A23" s="17" t="s">
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" s="11" customFormat="1" spans="1:16">
+      <c r="A23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="8">
@@ -4811,11 +4773,11 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" s="12" customFormat="1" spans="1:16">
-      <c r="A24" s="17" t="s">
+    <row r="24" s="11" customFormat="1" spans="1:16">
+      <c r="A24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="8">
@@ -4849,11 +4811,11 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" s="12" customFormat="1" spans="1:16">
-      <c r="A25" s="17" t="s">
+    <row r="25" s="11" customFormat="1" spans="1:16">
+      <c r="A25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="8">
@@ -4889,11 +4851,11 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" s="12" customFormat="1" spans="1:16">
-      <c r="A26" s="17" t="s">
+    <row r="26" s="11" customFormat="1" spans="1:16">
+      <c r="A26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="8">
@@ -4927,11 +4889,11 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" s="12" customFormat="1" spans="1:16">
-      <c r="A27" s="17" t="s">
+    <row r="27" s="11" customFormat="1" spans="1:16">
+      <c r="A27" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="8">
@@ -4965,13 +4927,13 @@
         <v>0.33</v>
       </c>
       <c r="O27" s="8"/>
-      <c r="P27" s="18"/>
-    </row>
-    <row r="28" s="12" customFormat="1" spans="1:16">
-      <c r="A28" s="17" t="s">
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:16">
+      <c r="A28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="8">
@@ -5005,11 +4967,11 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" s="12" customFormat="1" spans="1:16">
-      <c r="A29" s="17" t="s">
+    <row r="29" s="11" customFormat="1" spans="1:16">
+      <c r="A29" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="8">
@@ -5045,13 +5007,13 @@
         <v>0.2</v>
       </c>
       <c r="O29" s="8"/>
-      <c r="P29" s="18"/>
-    </row>
-    <row r="30" s="12" customFormat="1" spans="1:16">
-      <c r="A30" s="17" t="s">
+      <c r="P29" s="17"/>
+    </row>
+    <row r="30" s="11" customFormat="1" spans="1:16">
+      <c r="A30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="8">
@@ -5087,11 +5049,11 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="31" s="12" customFormat="1" spans="1:16">
-      <c r="A31" s="17" t="s">
+    <row r="31" s="11" customFormat="1" spans="1:16">
+      <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="8">
@@ -5129,11 +5091,11 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="32" s="12" customFormat="1" spans="1:16">
-      <c r="A32" s="17" t="s">
+    <row r="32" s="11" customFormat="1" spans="1:16">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="8">
@@ -5165,11 +5127,11 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" s="12" customFormat="1" spans="1:16">
-      <c r="A33" s="17" t="s">
+    <row r="33" s="11" customFormat="1" spans="1:16">
+      <c r="A33" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="8">
@@ -5209,13 +5171,13 @@
       <c r="O33" s="8">
         <v>0.23</v>
       </c>
-      <c r="P33" s="18"/>
-    </row>
-    <row r="34" s="12" customFormat="1" spans="1:16">
-      <c r="A34" s="17" t="s">
+      <c r="P33" s="17"/>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="1:16">
+      <c r="A34" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="8">
@@ -5255,13 +5217,13 @@
         <v>0.25</v>
       </c>
       <c r="O34" s="8"/>
-      <c r="P34" s="18"/>
-    </row>
-    <row r="35" s="12" customFormat="1" spans="1:16">
-      <c r="A35" s="17" t="s">
+      <c r="P34" s="17"/>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:16">
+      <c r="A35" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="8">
@@ -5297,13 +5259,13 @@
       <c r="O35" s="8">
         <v>0.4</v>
       </c>
-      <c r="P35" s="18"/>
-    </row>
-    <row r="36" s="12" customFormat="1" spans="1:16">
-      <c r="A36" s="17" t="s">
+      <c r="P35" s="17"/>
+    </row>
+    <row r="36" s="11" customFormat="1" spans="1:16">
+      <c r="A36" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="8">
@@ -5339,13 +5301,13 @@
       <c r="O36" s="8">
         <v>0.44</v>
       </c>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" s="12" customFormat="1" spans="1:16">
-      <c r="A37" s="17" t="s">
+      <c r="P36" s="17"/>
+    </row>
+    <row r="37" s="11" customFormat="1" spans="1:16">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="8">
@@ -5383,11 +5345,11 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" s="12" customFormat="1" spans="1:16">
-      <c r="A38" s="17" t="s">
+    <row r="38" s="11" customFormat="1" spans="1:16">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="8">
@@ -5421,13 +5383,13 @@
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="18"/>
-    </row>
-    <row r="39" s="12" customFormat="1" spans="1:16">
-      <c r="A39" s="17" t="s">
+      <c r="P38" s="17"/>
+    </row>
+    <row r="39" s="11" customFormat="1" spans="1:16">
+      <c r="A39" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="8">
@@ -5461,13 +5423,13 @@
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="18"/>
-    </row>
-    <row r="40" s="12" customFormat="1" spans="1:16">
-      <c r="A40" s="17" t="s">
+      <c r="P39" s="17"/>
+    </row>
+    <row r="40" s="11" customFormat="1" spans="1:16">
+      <c r="A40" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="8">
@@ -5503,13 +5465,13 @@
         <v>0.22</v>
       </c>
       <c r="O40" s="8"/>
-      <c r="P40" s="18"/>
-    </row>
-    <row r="41" s="12" customFormat="1" spans="1:16">
-      <c r="A41" s="17" t="s">
+      <c r="P40" s="17"/>
+    </row>
+    <row r="41" s="11" customFormat="1" spans="1:16">
+      <c r="A41" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="8">
@@ -5541,13 +5503,13 @@
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="18"/>
+      <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="8">
@@ -5585,13 +5547,13 @@
         <v>0.22</v>
       </c>
       <c r="O42" s="8"/>
-      <c r="P42" s="18"/>
+      <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="8">
@@ -5630,10 +5592,10 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="8">
@@ -5669,13 +5631,13 @@
         <v>0.41</v>
       </c>
       <c r="O44" s="8"/>
-      <c r="P44" s="18"/>
+      <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="8">
@@ -5707,13 +5669,13 @@
         <v>0.61</v>
       </c>
       <c r="O45" s="8"/>
-      <c r="P45" s="18"/>
+      <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="8">
@@ -5745,13 +5707,13 @@
         <v>0.68</v>
       </c>
       <c r="O46" s="8"/>
-      <c r="P46" s="18"/>
+      <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="8">
@@ -5789,13 +5751,13 @@
         <v>0.47</v>
       </c>
       <c r="O47" s="8"/>
-      <c r="P47" s="18"/>
+      <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="8">
@@ -5833,13 +5795,13 @@
         <v>0.35</v>
       </c>
       <c r="O48" s="8"/>
-      <c r="P48" s="18"/>
+      <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="8">
@@ -5871,13 +5833,13 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="18"/>
+      <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="8">
@@ -5911,13 +5873,13 @@
         <v>0.64</v>
       </c>
       <c r="O50" s="8"/>
-      <c r="P50" s="18"/>
+      <c r="P50" s="17"/>
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:16">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="8">
@@ -5953,13 +5915,13 @@
         <v>0.47</v>
       </c>
       <c r="O51" s="8"/>
-      <c r="P51" s="18"/>
+      <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="8">
@@ -5995,13 +5957,13 @@
         <v>0.26</v>
       </c>
       <c r="O52" s="8"/>
-      <c r="P52" s="18"/>
+      <c r="P52" s="17"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="8">
@@ -6037,13 +5999,13 @@
         <v>0.23</v>
       </c>
       <c r="O53" s="8"/>
-      <c r="P53" s="18"/>
+      <c r="P53" s="17"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="8">
@@ -6077,13 +6039,13 @@
         <v>0.43</v>
       </c>
       <c r="O54" s="8"/>
-      <c r="P54" s="18"/>
+      <c r="P54" s="17"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="8">
@@ -6121,13 +6083,13 @@
         <v>0.85</v>
       </c>
       <c r="O55" s="8"/>
-      <c r="P55" s="18"/>
+      <c r="P55" s="17"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="8">
@@ -6167,13 +6129,13 @@
       <c r="O56" s="8">
         <v>1.31</v>
       </c>
-      <c r="P56" s="18"/>
+      <c r="P56" s="17"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="8">
@@ -6209,13 +6171,13 @@
         <v>0.46</v>
       </c>
       <c r="O57" s="8"/>
-      <c r="P57" s="18"/>
+      <c r="P57" s="17"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="8">
@@ -6253,13 +6215,13 @@
         <v>0.3</v>
       </c>
       <c r="O58" s="8"/>
-      <c r="P58" s="18"/>
+      <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="8">
@@ -6295,13 +6257,13 @@
         <v>0.66</v>
       </c>
       <c r="O59" s="8"/>
-      <c r="P59" s="18"/>
+      <c r="P59" s="17"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="8">
@@ -6335,13 +6297,13 @@
         <v>0.23</v>
       </c>
       <c r="O60" s="8"/>
-      <c r="P60" s="18"/>
+      <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="8">
@@ -6379,13 +6341,13 @@
       <c r="O61" s="8">
         <v>0.47</v>
       </c>
-      <c r="P61" s="18"/>
+      <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="8">
@@ -6417,13 +6379,13 @@
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="18"/>
+      <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="8">
@@ -6461,13 +6423,13 @@
         <v>0.44</v>
       </c>
       <c r="O63" s="8"/>
-      <c r="P63" s="18"/>
+      <c r="P63" s="17"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C64" s="8">
@@ -6503,13 +6465,13 @@
         <v>0.27</v>
       </c>
       <c r="O64" s="8"/>
-      <c r="P64" s="18"/>
+      <c r="P64" s="17"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="8">
@@ -6545,13 +6507,13 @@
         <v>0.88</v>
       </c>
       <c r="O65" s="8"/>
-      <c r="P65" s="18"/>
+      <c r="P65" s="17"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C66" s="8">
@@ -6581,13 +6543,13 @@
         <v>1.12</v>
       </c>
       <c r="O66" s="8"/>
-      <c r="P66" s="18"/>
+      <c r="P66" s="17"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="8">
@@ -6619,13 +6581,13 @@
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="18"/>
+      <c r="P67" s="17"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="8">
@@ -6655,13 +6617,13 @@
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="18"/>
+      <c r="P68" s="17"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="8">
@@ -6689,13 +6651,13 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="18"/>
+      <c r="P69" s="17"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C70" s="8">
@@ -6748,10 +6710,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -6761,7 +6723,7 @@
     <col min="17" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6810,10 +6772,16 @@
       <c r="P1" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
@@ -6853,7 +6821,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>14</v>
@@ -6885,7 +6853,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
@@ -6929,7 +6897,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -6973,7 +6941,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -7021,31 +6989,31 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>93.17</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>1.35</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>0.64</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>0.21</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>1.52</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>0.27</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <v>1.73</v>
       </c>
       <c r="K7" s="6"/>
@@ -7059,7 +7027,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
@@ -7097,51 +7065,51 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>51.12</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.23</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>0.89</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>2.12</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>9.01</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>21.24</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>11.34</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>1.46</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>0.31</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>2.26</v>
       </c>
     </row>

--- a/Question/附件.xlsx
+++ b/Question/附件.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="138">
   <si>
     <t>文物编号</t>
   </si>
@@ -1413,12 +1413,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>玻璃类型</t>
-  </si>
-  <si>
-    <t>玻璃亚类</t>
   </si>
   <si>
     <t>A1</t>
@@ -6710,10 +6704,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="R1" sqref="R$1:R$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -6723,7 +6717,7 @@
     <col min="17" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="32" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6772,16 +6766,10 @@
       <c r="P1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
@@ -6821,7 +6809,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>14</v>
@@ -6853,7 +6841,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
@@ -6897,7 +6885,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -6941,7 +6929,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -6989,7 +6977,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>14</v>
@@ -7027,7 +7015,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
@@ -7065,7 +7053,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
